--- a/data/nzd0542/nzd0542.xlsx
+++ b/data/nzd0542/nzd0542.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J513"/>
+  <dimension ref="A1:J516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17269,8 +17269,118 @@
       <c r="H513" t="n">
         <v>272.3082352941177</v>
       </c>
-      <c r="I513" t="inlineStr"/>
+      <c r="I513" t="n">
+        <v>288.1777777777777</v>
+      </c>
       <c r="J513" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>306.3</v>
+      </c>
+      <c r="C514" t="n">
+        <v>289.99</v>
+      </c>
+      <c r="D514" t="n">
+        <v>276.15</v>
+      </c>
+      <c r="E514" t="n">
+        <v>269.9866666666667</v>
+      </c>
+      <c r="F514" t="n">
+        <v>274.6728571428571</v>
+      </c>
+      <c r="G514" t="n">
+        <v>286.04</v>
+      </c>
+      <c r="H514" t="n">
+        <v>290.4247058823529</v>
+      </c>
+      <c r="I514" t="n">
+        <v>301.8844444444445</v>
+      </c>
+      <c r="J514" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>307.73</v>
+      </c>
+      <c r="C515" t="n">
+        <v>291.51</v>
+      </c>
+      <c r="D515" t="n">
+        <v>279.75</v>
+      </c>
+      <c r="E515" t="n">
+        <v>269.66</v>
+      </c>
+      <c r="F515" t="n">
+        <v>265.4757142857143</v>
+      </c>
+      <c r="G515" t="n">
+        <v>265.04</v>
+      </c>
+      <c r="H515" t="n">
+        <v>273.2194117647059</v>
+      </c>
+      <c r="I515" t="n">
+        <v>292.5933333333333</v>
+      </c>
+      <c r="J515" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>303.98</v>
+      </c>
+      <c r="C516" t="n">
+        <v>287.41</v>
+      </c>
+      <c r="D516" t="n">
+        <v>277.75</v>
+      </c>
+      <c r="E516" t="n">
+        <v>269.47</v>
+      </c>
+      <c r="F516" t="n">
+        <v>268.51</v>
+      </c>
+      <c r="G516" t="n">
+        <v>271.8</v>
+      </c>
+      <c r="H516" t="n">
+        <v>289.1311764705882</v>
+      </c>
+      <c r="I516" t="n">
+        <v>306.0966666666667</v>
+      </c>
+      <c r="J516" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17287,7 +17397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B536"/>
+  <dimension ref="A1:B539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22655,6 +22765,36 @@
       </c>
       <c r="B536" t="n">
         <v>0.62</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -22823,28 +22963,28 @@
         <v>0.0321</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1768364574894487</v>
+        <v>-0.1612398036463311</v>
       </c>
       <c r="J2" t="n">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="K2" t="n">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003621450756129851</v>
+        <v>0.003052381981349495</v>
       </c>
       <c r="M2" t="n">
-        <v>16.57069340142508</v>
+        <v>16.51447559688414</v>
       </c>
       <c r="N2" t="n">
-        <v>440.0602057143715</v>
+        <v>437.5618304588289</v>
       </c>
       <c r="O2" t="n">
-        <v>20.97761201172268</v>
+        <v>20.91797864180067</v>
       </c>
       <c r="P2" t="n">
-        <v>299.9124322210496</v>
+        <v>299.7561078040798</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -22900,28 +23040,28 @@
         <v>0.0232</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1664974854036617</v>
+        <v>-0.1601389081156784</v>
       </c>
       <c r="J3" t="n">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="K3" t="n">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004086409253092227</v>
+        <v>0.003835819210519897</v>
       </c>
       <c r="M3" t="n">
-        <v>15.13195385733887</v>
+        <v>15.04717428726842</v>
       </c>
       <c r="N3" t="n">
-        <v>354.150758347431</v>
+        <v>351.6259257582735</v>
       </c>
       <c r="O3" t="n">
-        <v>18.81889365365113</v>
+        <v>18.75169127727613</v>
       </c>
       <c r="P3" t="n">
-        <v>289.4398730407933</v>
+        <v>289.3770627954107</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -22971,28 +23111,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>-0.2945957843114452</v>
+        <v>-0.2956168724004955</v>
       </c>
       <c r="J4" t="n">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="K4" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01741483120995113</v>
+        <v>0.01777713601296493</v>
       </c>
       <c r="M4" t="n">
-        <v>12.73067010410445</v>
+        <v>12.64944870065985</v>
       </c>
       <c r="N4" t="n">
-        <v>258.4613704930925</v>
+        <v>256.6171935541021</v>
       </c>
       <c r="O4" t="n">
-        <v>16.07673382541033</v>
+        <v>16.0192756875616</v>
       </c>
       <c r="P4" t="n">
-        <v>286.0521577464474</v>
+        <v>286.0621589448243</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -23048,28 +23188,28 @@
         <v>0.0322</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3949855167806409</v>
+        <v>-0.3965278127928739</v>
       </c>
       <c r="J5" t="n">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="K5" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03440626007488412</v>
+        <v>0.03512528512060553</v>
       </c>
       <c r="M5" t="n">
-        <v>11.68041008664466</v>
+        <v>11.60665507138448</v>
       </c>
       <c r="N5" t="n">
-        <v>231.2361417756851</v>
+        <v>229.6056219963821</v>
       </c>
       <c r="O5" t="n">
-        <v>15.20645066331013</v>
+        <v>15.15274305188279</v>
       </c>
       <c r="P5" t="n">
-        <v>280.8061924129283</v>
+        <v>280.8213942603583</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -23119,28 +23259,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.4638156251644155</v>
+        <v>-0.464314144656236</v>
       </c>
       <c r="J6" t="n">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="K6" t="n">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05017844180621389</v>
+        <v>0.05088760192285746</v>
       </c>
       <c r="M6" t="n">
-        <v>11.0770840207158</v>
+        <v>11.02550609681465</v>
       </c>
       <c r="N6" t="n">
-        <v>212.9236936343685</v>
+        <v>211.5719708795669</v>
       </c>
       <c r="O6" t="n">
-        <v>14.5919050721408</v>
+        <v>14.54551377159181</v>
       </c>
       <c r="P6" t="n">
-        <v>281.6120853798096</v>
+        <v>281.6171183760013</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -23196,28 +23336,28 @@
         <v>0.0472</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5145556059389848</v>
+        <v>-0.5105534552174079</v>
       </c>
       <c r="J7" t="n">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="K7" t="n">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0577641914436593</v>
+        <v>0.05749424484759524</v>
       </c>
       <c r="M7" t="n">
-        <v>11.34531327987589</v>
+        <v>11.31583771443508</v>
       </c>
       <c r="N7" t="n">
-        <v>220.1759462572712</v>
+        <v>219.2129369509869</v>
       </c>
       <c r="O7" t="n">
-        <v>14.83832693592075</v>
+        <v>14.80584131182645</v>
       </c>
       <c r="P7" t="n">
-        <v>284.2777131117061</v>
+        <v>284.2371704688969</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -23267,28 +23407,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.4758908133018482</v>
+        <v>-0.4644453264991583</v>
       </c>
       <c r="J8" t="n">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="K8" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03821007623791117</v>
+        <v>0.03684468759472537</v>
       </c>
       <c r="M8" t="n">
-        <v>13.17591020529087</v>
+        <v>13.15065882272602</v>
       </c>
       <c r="N8" t="n">
-        <v>287.6599635984513</v>
+        <v>286.4471192519819</v>
       </c>
       <c r="O8" t="n">
-        <v>16.96054137103092</v>
+        <v>16.9247487204975</v>
       </c>
       <c r="P8" t="n">
-        <v>288.2120295545266</v>
+        <v>288.0949801157251</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -23344,28 +23484,28 @@
         <v>0.053</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3690032015081368</v>
+        <v>-0.3598065793903599</v>
       </c>
       <c r="J9" t="n">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="K9" t="n">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0259572398912481</v>
+        <v>0.02508992756233308</v>
       </c>
       <c r="M9" t="n">
-        <v>12.44622830554655</v>
+        <v>12.39006901299346</v>
       </c>
       <c r="N9" t="n">
-        <v>255.9189406130395</v>
+        <v>254.1228811293548</v>
       </c>
       <c r="O9" t="n">
-        <v>15.99746669360619</v>
+        <v>15.94123210825797</v>
       </c>
       <c r="P9" t="n">
-        <v>301.6125066905335</v>
+        <v>301.5176018067311</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -23402,7 +23542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J513"/>
+  <dimension ref="A1:J516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46791,8 +46931,168 @@
           <t>-46.497893888795275,169.709106809827</t>
         </is>
       </c>
-      <c r="I513" t="inlineStr"/>
+      <c r="I513" t="inlineStr">
+        <is>
+          <t>-46.49852496516062,169.70924797183918</t>
+        </is>
+      </c>
       <c r="J513" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>-46.494223629736794,169.70993388405864</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>-46.4948257729885,169.70965813479216</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>-46.49543013265026,169.7094143813795</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>-46.496041397289886,169.70927008131991</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>-46.49666242431597,169.70926634522058</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>-46.49728946023607,169.70934916949432</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>-46.497910201904276,169.70934153101683</t>
+        </is>
+      </c>
+      <c r="I514" t="inlineStr">
+        <is>
+          <t>-46.498537307271654,169.70942556067152</t>
+        </is>
+      </c>
+      <c r="J514" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>-46.49422491726492,169.70995241024377</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>-46.49482714159874,169.70967782716895</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>-46.49543337419318,169.7094610217181</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>-46.496041103143256,169.709265849095</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>-46.49665414268478,169.7091471876285</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>-46.497270550630454,169.7090770917383</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>-46.49789470928225,169.70911861523646</t>
+        </is>
+      </c>
+      <c r="I515" t="inlineStr">
+        <is>
+          <t>-46.498528941159186,169.70930518146073</t>
+        </is>
+      </c>
+      <c r="J515" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:14:42+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>-46.49422154087362,169.70990382759265</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>-46.494823449944946,169.70962470957636</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>-46.495431573338344,169.70943511041804</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>-46.49604093205789,169.70926338749481</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>-46.49665687494207,169.70918649963454</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>-46.49727663779276,169.70916467483914</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>-46.49790903715209,169.7093247717446</t>
+        </is>
+      </c>
+      <c r="I516" t="inlineStr">
+        <is>
+          <t>-46.498541100094606,169.70948013585797</t>
+        </is>
+      </c>
+      <c r="J516" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0542/nzd0542.xlsx
+++ b/data/nzd0542/nzd0542.xlsx
@@ -22808,7 +22808,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22899,35 +22899,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -22986,27 +22991,28 @@
       <c r="P2" t="n">
         <v>299.7561078040798</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (169.70596567685254 -46.493947777866566, 169.7173119552028 -46.49473614740395)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>169.7059656768525</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-46.49394777786657</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>169.7173119552028</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-46.49473614740395</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>169.7116388160277</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-46.49434196263526</v>
       </c>
     </row>
@@ -23063,27 +23069,28 @@
       <c r="P3" t="n">
         <v>289.3770627954107</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (169.7059011875988 -46.49456460390589, 169.7172475525149 -46.49535297801467)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>169.7059011875988</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-46.49456460390589</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>169.7172475525149</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-46.49535297801467</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>169.7115743700568</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-46.49495879096028</v>
       </c>
     </row>
@@ -23134,27 +23141,28 @@
       <c r="P4" t="n">
         <v>286.0621589448243</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (169.70583669834443 -46.495181422948875, 169.71718314982823 -46.495969801629094)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>169.7058366983444</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-46.49518142294887</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>169.7171831498282</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-46.49596980162909</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>169.7115099240863</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-46.49557561228899</v>
       </c>
     </row>
@@ -23211,27 +23219,28 @@
       <c r="P5" t="n">
         <v>280.8213942603583</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (169.70577220908942 -46.495798234995505, 169.7171187471428 -46.49658661824721)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>169.7057722090894</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-46.4957982349955</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>169.7171187471428</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-46.49658661824721</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>169.7114454781161</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-46.49619242662136</v>
       </c>
     </row>
@@ -23282,27 +23291,28 @@
       <c r="P6" t="n">
         <v>281.6171183760013</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (169.7057077198338 -46.49641504004583, 169.7170543444586 -46.497203427868904)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>169.7057077198338</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-46.49641504004583</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>169.7170543444586</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-46.4972034278689</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>169.7113810321462</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-46.49680923395736</v>
       </c>
     </row>
@@ -23359,27 +23369,28 @@
       <c r="P7" t="n">
         <v>284.2371704688969</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (169.70564323057758 -46.497031838099815, 169.7169899417757 -46.497820230494305)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>169.7056432305776</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-46.49703183809982</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>169.7169899417757</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-46.49782023049431</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>169.7113165861766</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-46.49742603429706</v>
       </c>
     </row>
@@ -23430,27 +23441,28 @@
       <c r="P8" t="n">
         <v>288.0949801157251</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (169.70557874132078 -46.49764862915737, 169.71692553909392 -46.49843702612359)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>169.7055787413208</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-46.49764862915737</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>169.7169255390939</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-46.49843702612359</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>169.7112521402074</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-46.49804282764048</v>
       </c>
     </row>
@@ -23507,27 +23519,28 @@
       <c r="P9" t="n">
         <v>301.5176018067311</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (169.70551425206332 -46.49826541321858, 169.7168611364134 -46.49905381475659)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>169.7055142520633</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-46.49826541321858</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>169.7168611364134</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-46.49905381475659</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>169.7111876942384</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-46.49865961398758</v>
       </c>
     </row>

--- a/data/nzd0542/nzd0542.xlsx
+++ b/data/nzd0542/nzd0542.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J516"/>
+  <dimension ref="A1:J519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17381,6 +17381,114 @@
         <v>306.0966666666667</v>
       </c>
       <c r="J516" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>284.79</v>
+      </c>
+      <c r="C517" t="n">
+        <v>273.11</v>
+      </c>
+      <c r="D517" t="n">
+        <v>263.18</v>
+      </c>
+      <c r="E517" t="n">
+        <v>256.9066666666667</v>
+      </c>
+      <c r="F517" t="n">
+        <v>255.87</v>
+      </c>
+      <c r="G517" t="n">
+        <v>257.11</v>
+      </c>
+      <c r="H517" t="n">
+        <v>260.1041176470588</v>
+      </c>
+      <c r="I517" t="n">
+        <v>283.1311111111111</v>
+      </c>
+      <c r="J517" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>316.75</v>
+      </c>
+      <c r="C518" t="n">
+        <v>305.36</v>
+      </c>
+      <c r="D518" t="n">
+        <v>295.35</v>
+      </c>
+      <c r="E518" t="n">
+        <v>283.2666666666667</v>
+      </c>
+      <c r="F518" t="n">
+        <v>279.9514285714285</v>
+      </c>
+      <c r="G518" t="n">
+        <v>285.09</v>
+      </c>
+      <c r="H518" t="n">
+        <v>298.6694117647058</v>
+      </c>
+      <c r="I518" t="n">
+        <v>307.8177777777778</v>
+      </c>
+      <c r="J518" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>324.61</v>
+      </c>
+      <c r="C519" t="n">
+        <v>321.47</v>
+      </c>
+      <c r="D519" t="n">
+        <v>300.13</v>
+      </c>
+      <c r="E519" t="n">
+        <v>294.5033333333333</v>
+      </c>
+      <c r="F519" t="n">
+        <v>283.7942857142857</v>
+      </c>
+      <c r="G519" t="n">
+        <v>288.59</v>
+      </c>
+      <c r="H519" t="n">
+        <v>298.1611764705883</v>
+      </c>
+      <c r="I519" t="n">
+        <v>310.9222222222222</v>
+      </c>
+      <c r="J519" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17397,7 +17505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B539"/>
+  <dimension ref="A1:B542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22795,6 +22903,36 @@
       </c>
       <c r="B539" t="n">
         <v>0.21</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>0.55</v>
       </c>
     </row>
   </sheetData>
@@ -22968,28 +23106,28 @@
         <v>0.0321</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1612398036463311</v>
+        <v>-0.1416813212890742</v>
       </c>
       <c r="J2" t="n">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="K2" t="n">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003052381981349495</v>
+        <v>0.002376205439275969</v>
       </c>
       <c r="M2" t="n">
-        <v>16.51447559688414</v>
+        <v>16.53035104688104</v>
       </c>
       <c r="N2" t="n">
-        <v>437.5618304588289</v>
+        <v>437.7587798125858</v>
       </c>
       <c r="O2" t="n">
-        <v>20.91797864180067</v>
+        <v>20.92268576958001</v>
       </c>
       <c r="P2" t="n">
-        <v>299.7561078040798</v>
+        <v>299.5566474955212</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23046,28 +23184,28 @@
         <v>0.0232</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1601389081156784</v>
+        <v>-0.1386036497847191</v>
       </c>
       <c r="J3" t="n">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="K3" t="n">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003835819210519897</v>
+        <v>0.00288224127284975</v>
       </c>
       <c r="M3" t="n">
-        <v>15.04717428726842</v>
+        <v>15.09596044761962</v>
       </c>
       <c r="N3" t="n">
-        <v>351.6259257582735</v>
+        <v>353.6133320977051</v>
       </c>
       <c r="O3" t="n">
-        <v>18.75169127727613</v>
+        <v>18.80460933116413</v>
       </c>
       <c r="P3" t="n">
-        <v>289.3770627954107</v>
+        <v>289.160398409601</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23118,28 +23256,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>-0.2956168724004955</v>
+        <v>-0.284885576458104</v>
       </c>
       <c r="J4" t="n">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="K4" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01777713601296493</v>
+        <v>0.01661913108184199</v>
       </c>
       <c r="M4" t="n">
-        <v>12.64944870065985</v>
+        <v>12.68900741062483</v>
       </c>
       <c r="N4" t="n">
-        <v>256.6171935541021</v>
+        <v>257.1245282458351</v>
       </c>
       <c r="O4" t="n">
-        <v>16.0192756875616</v>
+        <v>16.03510300078659</v>
       </c>
       <c r="P4" t="n">
-        <v>286.0621589448243</v>
+        <v>285.9547816017092</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23196,28 +23334,28 @@
         <v>0.0322</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3965278127928739</v>
+        <v>-0.3862823688061578</v>
       </c>
       <c r="J5" t="n">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="K5" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03512528512060553</v>
+        <v>0.03354839233246043</v>
       </c>
       <c r="M5" t="n">
-        <v>11.60665507138448</v>
+        <v>11.63659324771386</v>
       </c>
       <c r="N5" t="n">
-        <v>229.6056219963821</v>
+        <v>230.1296406353016</v>
       </c>
       <c r="O5" t="n">
-        <v>15.15274305188279</v>
+        <v>15.17002441116367</v>
       </c>
       <c r="P5" t="n">
-        <v>280.8213942603583</v>
+        <v>280.7184696506487</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23268,28 +23406,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.464314144656236</v>
+        <v>-0.4597813177242328</v>
       </c>
       <c r="J6" t="n">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="K6" t="n">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05088760192285746</v>
+        <v>0.05034259196574675</v>
       </c>
       <c r="M6" t="n">
-        <v>11.02550609681465</v>
+        <v>11.03738107892393</v>
       </c>
       <c r="N6" t="n">
-        <v>211.5719708795669</v>
+        <v>211.2536794976121</v>
       </c>
       <c r="O6" t="n">
-        <v>14.54551377159181</v>
+        <v>14.53456843176336</v>
       </c>
       <c r="P6" t="n">
-        <v>281.6171183760013</v>
+        <v>281.571119054802</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23346,28 +23484,28 @@
         <v>0.0472</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5105534552174079</v>
+        <v>-0.5026703816143616</v>
       </c>
       <c r="J7" t="n">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="K7" t="n">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05749424484759524</v>
+        <v>0.05617021296434754</v>
       </c>
       <c r="M7" t="n">
-        <v>11.31583771443508</v>
+        <v>11.34319889177929</v>
       </c>
       <c r="N7" t="n">
-        <v>219.2129369509869</v>
+        <v>219.2951639915271</v>
       </c>
       <c r="O7" t="n">
-        <v>14.80584131182645</v>
+        <v>14.80861789606063</v>
       </c>
       <c r="P7" t="n">
-        <v>284.2371704688969</v>
+        <v>284.155371577282</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23418,28 +23556,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.4644453264991583</v>
+        <v>-0.4508547441537813</v>
       </c>
       <c r="J8" t="n">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="K8" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03684468759472537</v>
+        <v>0.03492674977108856</v>
       </c>
       <c r="M8" t="n">
-        <v>13.15065882272602</v>
+        <v>13.1998939806675</v>
       </c>
       <c r="N8" t="n">
-        <v>286.4471192519819</v>
+        <v>287.3798143560411</v>
       </c>
       <c r="O8" t="n">
-        <v>16.9247487204975</v>
+        <v>16.95228050605703</v>
       </c>
       <c r="P8" t="n">
-        <v>288.0949801157251</v>
+        <v>287.9533893759167</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23496,28 +23634,28 @@
         <v>0.053</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3598065793903599</v>
+        <v>-0.3479161500092601</v>
       </c>
       <c r="J9" t="n">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="K9" t="n">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02508992756233308</v>
+        <v>0.0236791908018652</v>
       </c>
       <c r="M9" t="n">
-        <v>12.39006901299346</v>
+        <v>12.40308774823141</v>
       </c>
       <c r="N9" t="n">
-        <v>254.1228811293548</v>
+        <v>253.8865744681894</v>
       </c>
       <c r="O9" t="n">
-        <v>15.94123210825797</v>
+        <v>15.93381857773551</v>
       </c>
       <c r="P9" t="n">
-        <v>301.5176018067311</v>
+        <v>301.3928076644019</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23555,7 +23693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J516"/>
+  <dimension ref="A1:J519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47111,6 +47249,162 @@
         </is>
       </c>
     </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:16+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>-46.494204262432724,169.7096552140843</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>-46.49481057398491,169.70943944584465</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>-46.49541845393468,169.70924634665855</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>-46.496029619296856,169.70910061962167</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>-46.49664549302086,169.70902273665706</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>-46.49726340983586,169.70897435005338</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>-46.49788289923798,169.70894869054547</t>
+        </is>
+      </c>
+      <c r="I517" t="inlineStr">
+        <is>
+          <t>-46.49852042084155,169.70918258531353</t>
+        </is>
+      </c>
+      <c r="J517" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>-46.4942330385275,169.7100692677432</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>-46.494839612004036,169.70985726105081</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>-46.49544742066074,169.70966312992803</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>-46.496053355119216,169.70944213426444</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>-46.49666717738656,169.70933473407234</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>-46.497288604815424,169.70933686121003</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>-46.497917625751704,169.7094483513914</t>
+        </is>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>-46.49854264983199,169.70950243524427</t>
+        </is>
+      </c>
+      <c r="J518" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>-46.494240115273705,169.71017109703908</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>-46.49485411693931,169.7100659745189</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>-46.4954517245714,169.7097250579812</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>-46.496063472850665,169.70958771427306</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>-46.49667063764783,169.70938452190566</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>-46.497291756358656,169.7093822075228</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>-46.497917168120146,169.70944176657278</t>
+        </is>
+      </c>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>-46.49854544515115,169.7095426576402</t>
+        </is>
+      </c>
+      <c r="J519" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0542/nzd0542.xlsx
+++ b/data/nzd0542/nzd0542.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J519"/>
+  <dimension ref="A1:J521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17491,6 +17491,78 @@
       <c r="J519" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>318.37</v>
+      </c>
+      <c r="C520" t="n">
+        <v>306.71</v>
+      </c>
+      <c r="D520" t="n">
+        <v>296.2</v>
+      </c>
+      <c r="E520" t="n">
+        <v>287.41</v>
+      </c>
+      <c r="F520" t="n">
+        <v>277.78</v>
+      </c>
+      <c r="G520" t="n">
+        <v>279.27</v>
+      </c>
+      <c r="H520" t="n">
+        <v>286.5635294117647</v>
+      </c>
+      <c r="I520" t="n">
+        <v>308.09</v>
+      </c>
+      <c r="J520" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:14:27+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>292.74</v>
+      </c>
+      <c r="C521" t="n">
+        <v>283.64</v>
+      </c>
+      <c r="D521" t="n">
+        <v>281.75</v>
+      </c>
+      <c r="E521" t="n">
+        <v>275.91</v>
+      </c>
+      <c r="F521" t="n">
+        <v>271.8614285714286</v>
+      </c>
+      <c r="G521" t="n">
+        <v>262.82</v>
+      </c>
+      <c r="H521" t="n">
+        <v>249.0111764705883</v>
+      </c>
+      <c r="I521" t="n">
+        <v>291.26</v>
+      </c>
+      <c r="J521" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -17505,7 +17577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B542"/>
+  <dimension ref="A1:B544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22933,6 +23005,26 @@
       </c>
       <c r="B542" t="n">
         <v>0.55</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>
@@ -23106,28 +23198,28 @@
         <v>0.0321</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1416813212890742</v>
+        <v>-0.1322225286742349</v>
       </c>
       <c r="J2" t="n">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="K2" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002376205439275969</v>
+        <v>0.002085340752645548</v>
       </c>
       <c r="M2" t="n">
-        <v>16.53035104688104</v>
+        <v>16.5059836086761</v>
       </c>
       <c r="N2" t="n">
-        <v>437.7587798125858</v>
+        <v>436.8467248703985</v>
       </c>
       <c r="O2" t="n">
-        <v>20.92268576958001</v>
+        <v>20.9008785669502</v>
       </c>
       <c r="P2" t="n">
-        <v>299.5566474955212</v>
+        <v>299.460153494916</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23184,28 +23276,28 @@
         <v>0.0232</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1386036497847191</v>
+        <v>-0.1293944949701326</v>
       </c>
       <c r="J3" t="n">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="K3" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00288224127284975</v>
+        <v>0.002530272831046343</v>
       </c>
       <c r="M3" t="n">
-        <v>15.09596044761962</v>
+        <v>15.07486172013822</v>
       </c>
       <c r="N3" t="n">
-        <v>353.6133320977051</v>
+        <v>352.9603848933272</v>
       </c>
       <c r="O3" t="n">
-        <v>18.80460933116413</v>
+        <v>18.78723994878778</v>
       </c>
       <c r="P3" t="n">
-        <v>289.160398409601</v>
+        <v>289.0677263883578</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23256,28 +23348,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>-0.284885576458104</v>
+        <v>-0.2754421086365711</v>
       </c>
       <c r="J4" t="n">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="K4" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01661913108184199</v>
+        <v>0.01565562837956003</v>
       </c>
       <c r="M4" t="n">
-        <v>12.68900741062483</v>
+        <v>12.67883812415164</v>
       </c>
       <c r="N4" t="n">
-        <v>257.1245282458351</v>
+        <v>256.648196529782</v>
       </c>
       <c r="O4" t="n">
-        <v>16.03510300078659</v>
+        <v>16.02024333553589</v>
       </c>
       <c r="P4" t="n">
-        <v>285.9547816017092</v>
+        <v>285.860287809703</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23334,28 +23426,28 @@
         <v>0.0322</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3862823688061578</v>
+        <v>-0.3765889247530287</v>
       </c>
       <c r="J5" t="n">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="K5" t="n">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03354839233246043</v>
+        <v>0.03213472015311236</v>
       </c>
       <c r="M5" t="n">
-        <v>11.63659324771386</v>
+        <v>11.62680620218484</v>
       </c>
       <c r="N5" t="n">
-        <v>230.1296406353016</v>
+        <v>229.7481301842196</v>
       </c>
       <c r="O5" t="n">
-        <v>15.17002441116367</v>
+        <v>15.1574447115673</v>
       </c>
       <c r="P5" t="n">
-        <v>280.7184696506487</v>
+        <v>280.6211027124187</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23406,28 +23498,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.4597813177242328</v>
+        <v>-0.4554430396741558</v>
       </c>
       <c r="J6" t="n">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="K6" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05034259196574675</v>
+        <v>0.04983338301409634</v>
       </c>
       <c r="M6" t="n">
-        <v>11.03738107892393</v>
+        <v>11.01043544084133</v>
       </c>
       <c r="N6" t="n">
-        <v>211.2536794976121</v>
+        <v>210.454704266615</v>
       </c>
       <c r="O6" t="n">
-        <v>14.53456843176336</v>
+        <v>14.50705705050528</v>
       </c>
       <c r="P6" t="n">
-        <v>281.571119054802</v>
+        <v>281.5271766949178</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23484,28 +23576,28 @@
         <v>0.0472</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5026703816143616</v>
+        <v>-0.5029142704495544</v>
       </c>
       <c r="J7" t="n">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="K7" t="n">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05617021296434754</v>
+        <v>0.05663344628846578</v>
       </c>
       <c r="M7" t="n">
-        <v>11.34319889177929</v>
+        <v>11.32849871487405</v>
       </c>
       <c r="N7" t="n">
-        <v>219.2951639915271</v>
+        <v>218.5826589509257</v>
       </c>
       <c r="O7" t="n">
-        <v>14.80861789606063</v>
+        <v>14.784541215436</v>
       </c>
       <c r="P7" t="n">
-        <v>284.155371577282</v>
+        <v>284.1579874998088</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23556,28 +23648,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.4508547441537813</v>
+        <v>-0.459119745723162</v>
       </c>
       <c r="J8" t="n">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="K8" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03492674977108856</v>
+        <v>0.03625567448732936</v>
       </c>
       <c r="M8" t="n">
-        <v>13.1998939806675</v>
+        <v>13.22863934722677</v>
       </c>
       <c r="N8" t="n">
-        <v>287.3798143560411</v>
+        <v>288.0557268837745</v>
       </c>
       <c r="O8" t="n">
-        <v>16.95228050605703</v>
+        <v>16.9722045381198</v>
       </c>
       <c r="P8" t="n">
-        <v>287.9533893759167</v>
+        <v>288.0398153691128</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23634,28 +23726,28 @@
         <v>0.053</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3479161500092601</v>
+        <v>-0.3411352921068335</v>
       </c>
       <c r="J9" t="n">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="K9" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0236791908018652</v>
+        <v>0.02294535253066465</v>
       </c>
       <c r="M9" t="n">
-        <v>12.40308774823141</v>
+        <v>12.38290284922557</v>
       </c>
       <c r="N9" t="n">
-        <v>253.8865744681894</v>
+        <v>253.2409938707749</v>
       </c>
       <c r="O9" t="n">
-        <v>15.93381857773551</v>
+        <v>15.91354749484774</v>
       </c>
       <c r="P9" t="n">
-        <v>301.3928076644019</v>
+        <v>301.3216120943088</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23693,7 +23785,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J519"/>
+  <dimension ref="A1:J521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47405,6 +47497,110 @@
         </is>
       </c>
     </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>-46.49423449710086,169.71009025545808</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>-46.494840827515944,169.7098747510012</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>-46.49544818600294,169.7096741422379</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>-46.4960570858853,169.70949581445595</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>-46.496665222136464,169.70930660117358</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>-46.49728336420967,169.70926145678376</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>-46.49790672511971,169.70929150470602</t>
+        </is>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>-46.49854289494823,169.70950596226163</t>
+        </is>
+      </c>
+      <c r="J520" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:14:27+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>-46.4942114205805,169.70975820923576</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>-46.49482005540262,169.70957586730975</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>-46.495435175042196,169.70948693302017</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>-46.49604673092175,169.7093468227954</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>-46.49665989275868,169.70922992052806</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>-46.49726855157741,169.70904832924575</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>-46.497872910083764,169.70880496798074</t>
+        </is>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>-46.49852774055869,169.7092879062846</t>
+        </is>
+      </c>
+      <c r="J521" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0542/nzd0542.xlsx
+++ b/data/nzd0542/nzd0542.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -31755,7 +31755,7 @@
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
-          <t>-46.49543747111623,169.70951996993324</t>
+          <t>-46.495437471116226,169.70951996993324</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -31970,7 +31970,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>-46.49726702076615,169.70902630391527</t>
+          <t>-46.49726702076616,169.70902630391527</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -42450,7 +42450,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>-46.49483253497084,169.70975543069147</t>
+          <t>-46.49483253497083,169.70975543069147</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -42753,7 +42753,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>-46.496671078861766,169.70939087031766</t>
+          <t>-46.49667107886176,169.70939087031766</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
@@ -44293,7 +44293,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>-46.49422074854414,169.7098924268649</t>
+          <t>-46.49422074854413,169.7098924268649</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">

--- a/data/nzd0542/nzd0542.xlsx
+++ b/data/nzd0542/nzd0542.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J521"/>
+  <dimension ref="A1:J526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17563,6 +17563,186 @@
       <c r="J521" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:43+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>274.82</v>
+      </c>
+      <c r="C522" t="n">
+        <v>270.25</v>
+      </c>
+      <c r="D522" t="n">
+        <v>266.89</v>
+      </c>
+      <c r="E522" t="n">
+        <v>262.5766666666667</v>
+      </c>
+      <c r="F522" t="n">
+        <v>264.7871428571428</v>
+      </c>
+      <c r="G522" t="n">
+        <v>264.87</v>
+      </c>
+      <c r="H522" t="n">
+        <v>264.0811764705882</v>
+      </c>
+      <c r="I522" t="n">
+        <v>284.9844444444445</v>
+      </c>
+      <c r="J522" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>270.05</v>
+      </c>
+      <c r="C523" t="n">
+        <v>261.65</v>
+      </c>
+      <c r="D523" t="n">
+        <v>257.39</v>
+      </c>
+      <c r="E523" t="n">
+        <v>249.5133333333333</v>
+      </c>
+      <c r="F523" t="n">
+        <v>244.5528571428572</v>
+      </c>
+      <c r="G523" t="n">
+        <v>250.74</v>
+      </c>
+      <c r="H523" t="n">
+        <v>260.1888235294118</v>
+      </c>
+      <c r="I523" t="n">
+        <v>273.7455555555555</v>
+      </c>
+      <c r="J523" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>295.31</v>
+      </c>
+      <c r="C524" t="n">
+        <v>288.69</v>
+      </c>
+      <c r="D524" t="n">
+        <v>279.79</v>
+      </c>
+      <c r="E524" t="n">
+        <v>275.61</v>
+      </c>
+      <c r="F524" t="n">
+        <v>276.1428571428572</v>
+      </c>
+      <c r="G524" t="n">
+        <v>275.75</v>
+      </c>
+      <c r="H524" t="n">
+        <v>287.4152941176471</v>
+      </c>
+      <c r="I524" t="n">
+        <v>293.92</v>
+      </c>
+      <c r="J524" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>265.15</v>
+      </c>
+      <c r="C525" t="n">
+        <v>250.38</v>
+      </c>
+      <c r="D525" t="n">
+        <v>240.84</v>
+      </c>
+      <c r="E525" t="n">
+        <v>241.71</v>
+      </c>
+      <c r="F525" t="n">
+        <v>245.1514285714286</v>
+      </c>
+      <c r="G525" t="n">
+        <v>255.26</v>
+      </c>
+      <c r="H525" t="n">
+        <v>264.5352941176471</v>
+      </c>
+      <c r="I525" t="n">
+        <v>283.6866666666667</v>
+      </c>
+      <c r="J525" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>255.82</v>
+      </c>
+      <c r="C526" t="n">
+        <v>251.45</v>
+      </c>
+      <c r="D526" t="n">
+        <v>246.17</v>
+      </c>
+      <c r="E526" t="n">
+        <v>253.9566666666666</v>
+      </c>
+      <c r="F526" t="n">
+        <v>256.2428571428571</v>
+      </c>
+      <c r="G526" t="n">
+        <v>259.29</v>
+      </c>
+      <c r="H526" t="n">
+        <v>272.3882352941176</v>
+      </c>
+      <c r="I526" t="n">
+        <v>291.9644444444444</v>
+      </c>
+      <c r="J526" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -17577,7 +17757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B544"/>
+  <dimension ref="A1:B549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23025,6 +23205,56 @@
       </c>
       <c r="B544" t="n">
         <v>0.72</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -23198,28 +23428,28 @@
         <v>0.0321</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1322225286742349</v>
+        <v>-0.1895985923929594</v>
       </c>
       <c r="J2" t="n">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="K2" t="n">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002085340752645548</v>
+        <v>0.004300075847345819</v>
       </c>
       <c r="M2" t="n">
-        <v>16.5059836086761</v>
+        <v>16.62392772170224</v>
       </c>
       <c r="N2" t="n">
-        <v>436.8467248703985</v>
+        <v>440.3343227235442</v>
       </c>
       <c r="O2" t="n">
-        <v>20.9008785669502</v>
+        <v>20.98414455543862</v>
       </c>
       <c r="P2" t="n">
-        <v>299.460153494916</v>
+        <v>300.0505563096769</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23276,28 +23506,28 @@
         <v>0.0232</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1293944949701326</v>
+        <v>-0.1795651930834072</v>
       </c>
       <c r="J3" t="n">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="K3" t="n">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002530272831046343</v>
+        <v>0.004875023073235729</v>
       </c>
       <c r="M3" t="n">
-        <v>15.07486172013822</v>
+        <v>15.18283140678064</v>
       </c>
       <c r="N3" t="n">
-        <v>352.9603848933272</v>
+        <v>356.4336428868295</v>
       </c>
       <c r="O3" t="n">
-        <v>18.78723994878778</v>
+        <v>18.8794502803135</v>
       </c>
       <c r="P3" t="n">
-        <v>289.0677263883578</v>
+        <v>289.5771060403631</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23348,28 +23578,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>-0.2754421086365711</v>
+        <v>-0.3216262056084885</v>
       </c>
       <c r="J4" t="n">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="K4" t="n">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01565562837956003</v>
+        <v>0.02114852907776799</v>
       </c>
       <c r="M4" t="n">
-        <v>12.67883812415164</v>
+        <v>12.76665271785113</v>
       </c>
       <c r="N4" t="n">
-        <v>256.648196529782</v>
+        <v>260.7404558325159</v>
       </c>
       <c r="O4" t="n">
-        <v>16.02024333553589</v>
+        <v>16.14745973311332</v>
       </c>
       <c r="P4" t="n">
-        <v>285.860287809703</v>
+        <v>286.3263427625552</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23426,28 +23656,28 @@
         <v>0.0322</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3765889247530287</v>
+        <v>-0.4079143067916667</v>
       </c>
       <c r="J5" t="n">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="K5" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03213472015311236</v>
+        <v>0.0377309721811665</v>
       </c>
       <c r="M5" t="n">
-        <v>11.62680620218484</v>
+        <v>11.69610031169766</v>
       </c>
       <c r="N5" t="n">
-        <v>229.7481301842196</v>
+        <v>230.9225353824486</v>
       </c>
       <c r="O5" t="n">
-        <v>15.1574447115673</v>
+        <v>15.19613554106598</v>
       </c>
       <c r="P5" t="n">
-        <v>280.6211027124187</v>
+        <v>280.9383425274033</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23498,28 +23728,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.4554430396741558</v>
+        <v>-0.4818806196263358</v>
       </c>
       <c r="J6" t="n">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="K6" t="n">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04983338301409634</v>
+        <v>0.0558139527294822</v>
       </c>
       <c r="M6" t="n">
-        <v>11.01043544084133</v>
+        <v>11.05097893391017</v>
       </c>
       <c r="N6" t="n">
-        <v>210.454704266615</v>
+        <v>211.3816715216323</v>
       </c>
       <c r="O6" t="n">
-        <v>14.50705705050528</v>
+        <v>14.53897078618814</v>
       </c>
       <c r="P6" t="n">
-        <v>281.5271766949178</v>
+        <v>281.7971437442872</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23576,28 +23806,28 @@
         <v>0.0472</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5029142704495544</v>
+        <v>-0.5252368758702149</v>
       </c>
       <c r="J7" t="n">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="K7" t="n">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05663344628846578</v>
+        <v>0.0622514676654895</v>
       </c>
       <c r="M7" t="n">
-        <v>11.32849871487405</v>
+        <v>11.33118366452817</v>
       </c>
       <c r="N7" t="n">
-        <v>218.5826589509257</v>
+        <v>218.0420751223947</v>
       </c>
       <c r="O7" t="n">
-        <v>14.784541215436</v>
+        <v>14.7662478349239</v>
       </c>
       <c r="P7" t="n">
-        <v>284.1579874998088</v>
+        <v>284.3914023149574</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23648,28 +23878,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.459119745723162</v>
+        <v>-0.4742684894492175</v>
       </c>
       <c r="J8" t="n">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="K8" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03625567448732936</v>
+        <v>0.03927789607239662</v>
       </c>
       <c r="M8" t="n">
-        <v>13.22863934722677</v>
+        <v>13.20279408599415</v>
       </c>
       <c r="N8" t="n">
-        <v>288.0557268837745</v>
+        <v>286.2053016661703</v>
       </c>
       <c r="O8" t="n">
-        <v>16.9722045381198</v>
+        <v>16.91760330738873</v>
       </c>
       <c r="P8" t="n">
-        <v>288.0398153691128</v>
+        <v>288.1988875465948</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23726,28 +23956,28 @@
         <v>0.053</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3411352921068335</v>
+        <v>-0.3570678374322191</v>
       </c>
       <c r="J9" t="n">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="K9" t="n">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02294535253066465</v>
+        <v>0.02555131583101078</v>
       </c>
       <c r="M9" t="n">
-        <v>12.38290284922557</v>
+        <v>12.32366613150787</v>
       </c>
       <c r="N9" t="n">
-        <v>253.2409938707749</v>
+        <v>251.3542407366179</v>
       </c>
       <c r="O9" t="n">
-        <v>15.91354749484774</v>
+        <v>15.85415531451039</v>
       </c>
       <c r="P9" t="n">
-        <v>301.3216120943088</v>
+        <v>301.490213079147</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -23785,7 +24015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J521"/>
+  <dimension ref="A1:J526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47601,6 +47831,266 @@
         </is>
       </c>
     </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:43+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>-46.49419528535484,169.70952604914098</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>-46.4948079987571,169.7094023931108</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>-46.49542179459467,169.7092944120943</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>-46.4960347249254,169.70917407892514</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>-46.49665352265088,169.70913826654302</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>-46.49727039755007,169.70907488920497</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>-46.49788648052163,169.709000218202</t>
+        </is>
+      </c>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>-46.49852208969751,169.70920659780097</t>
+        </is>
+      </c>
+      <c r="J522" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>-46.49419099035256,169.70946425208965</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>-46.49480025499323,169.7092909758241</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>-46.49541324030395,169.7091713334992</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>-46.49602296179896,169.7090048332058</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>-46.496635302093004,169.70887611259522</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>-46.49725767372129,169.70889181987062</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>-46.497882975514635,169.7089497880136</t>
+        </is>
+      </c>
+      <c r="I523" t="inlineStr">
+        <is>
+          <t>-46.498511969429856,169.7090609825337</t>
+        </is>
+      </c>
+      <c r="J523" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>-46.49421373457837,169.70979150453056</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>-46.49482460246388,169.70964129262876</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>-46.495433410210225,169.70946153994413</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>-46.496046460789685,169.7093429360573</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>-46.49666374797625,169.70928539045013</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>-46.49728019460971,169.70921585136588</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>-46.49790749209051,169.70930254036932</t>
+        </is>
+      </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>-46.49853013575411,169.70932237026187</t>
+        </is>
+      </c>
+      <c r="J524" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>-46.49418657826115,169.70940077085393</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>-46.49479010689746,169.70914496741335</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>-46.495398337514644,169.7089569177403</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>-46.49601593502059,169.70890373494933</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>-46.49663584110284,169.70888386764054</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>-46.49726174393741,169.70895038131687</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>-46.49788688944651,169.70900610185151</t>
+        </is>
+      </c>
+      <c r="I525" t="inlineStr">
+        <is>
+          <t>-46.498520921098645,169.7091897833012</t>
+        </is>
+      </c>
+      <c r="J525" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>-46.4941781771821,169.70927989743274</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>-46.49479107038921,169.70915882978852</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>-46.49540313706684,169.70902597125956</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>-46.49602696291073,169.70906240006107</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>-46.49664582877029,169.7090275673676</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>-46.497265372888165,169.70900259429652</t>
+        </is>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>-46.497893960832904,169.70910784632517</t>
+        </is>
+      </c>
+      <c r="I526" t="inlineStr">
+        <is>
+          <t>-46.49852837487628,169.70929703333584</t>
+        </is>
+      </c>
+      <c r="J526" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0542/nzd0542.xlsx
+++ b/data/nzd0542/nzd0542.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J526"/>
+  <dimension ref="A1:J527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17741,6 +17741,28 @@
         <v>291.9644444444444</v>
       </c>
       <c r="J526" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr"/>
+      <c r="C527" t="inlineStr"/>
+      <c r="D527" t="inlineStr"/>
+      <c r="E527" t="n">
+        <v>256.0066666666667</v>
+      </c>
+      <c r="F527" t="inlineStr"/>
+      <c r="G527" t="inlineStr"/>
+      <c r="H527" t="inlineStr"/>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17757,7 +17779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B549"/>
+  <dimension ref="A1:B550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23255,6 +23277,16 @@
       </c>
       <c r="B549" t="n">
         <v>0.11</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -23431,7 +23463,7 @@
         <v>-0.1895985923929594</v>
       </c>
       <c r="J2" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K2" t="n">
         <v>405</v>
@@ -23509,7 +23541,7 @@
         <v>-0.1795651930834072</v>
       </c>
       <c r="J3" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K3" t="n">
         <v>405</v>
@@ -23581,7 +23613,7 @@
         <v>-0.3216262056084885</v>
       </c>
       <c r="J4" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K4" t="n">
         <v>426</v>
@@ -23656,28 +23688,28 @@
         <v>0.0322</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4079143067916667</v>
+        <v>-0.4142406975944322</v>
       </c>
       <c r="J5" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K5" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0377309721811665</v>
+        <v>0.03895902453296518</v>
       </c>
       <c r="M5" t="n">
-        <v>11.69610031169766</v>
+        <v>11.70596481306596</v>
       </c>
       <c r="N5" t="n">
-        <v>230.9225353824486</v>
+        <v>230.8654151568373</v>
       </c>
       <c r="O5" t="n">
-        <v>15.19613554106598</v>
+        <v>15.19425599221091</v>
       </c>
       <c r="P5" t="n">
-        <v>280.9383425274033</v>
+        <v>281.0026189277152</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23731,7 +23763,7 @@
         <v>-0.4818806196263358</v>
       </c>
       <c r="J6" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K6" t="n">
         <v>450</v>
@@ -23809,7 +23841,7 @@
         <v>-0.5252368758702149</v>
       </c>
       <c r="J7" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K7" t="n">
         <v>431</v>
@@ -23881,7 +23913,7 @@
         <v>-0.4742684894492175</v>
       </c>
       <c r="J8" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K8" t="n">
         <v>414</v>
@@ -23959,7 +23991,7 @@
         <v>-0.3570678374322191</v>
       </c>
       <c r="J9" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K9" t="n">
         <v>415</v>
@@ -24015,7 +24047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J526"/>
+  <dimension ref="A1:J527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48091,6 +48123,30 @@
         </is>
       </c>
     </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr"/>
+      <c r="C527" t="inlineStr"/>
+      <c r="D527" t="inlineStr"/>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>-46.496028808875316,169.70908895941628</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr"/>
+      <c r="G527" t="inlineStr"/>
+      <c r="H527" t="inlineStr"/>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0542/nzd0542.xlsx
+++ b/data/nzd0542/nzd0542.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J527"/>
+  <dimension ref="A1:J531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17763,6 +17763,146 @@
       <c r="H527" t="inlineStr"/>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>265.16</v>
+      </c>
+      <c r="C528" t="n">
+        <v>255.49</v>
+      </c>
+      <c r="D528" t="n">
+        <v>269.35</v>
+      </c>
+      <c r="E528" t="n">
+        <v>262.0266666666667</v>
+      </c>
+      <c r="F528" t="n">
+        <v>282.8714285714286</v>
+      </c>
+      <c r="G528" t="n">
+        <v>278.47</v>
+      </c>
+      <c r="H528" t="n">
+        <v>279.8258823529412</v>
+      </c>
+      <c r="I528" t="n">
+        <v>291.5577777777777</v>
+      </c>
+      <c r="J528" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:15:11+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>286.26</v>
+      </c>
+      <c r="C529" t="n">
+        <v>277.86</v>
+      </c>
+      <c r="D529" t="n">
+        <v>274.99</v>
+      </c>
+      <c r="E529" t="n">
+        <v>271.8766666666667</v>
+      </c>
+      <c r="F529" t="n">
+        <v>268.7271428571428</v>
+      </c>
+      <c r="G529" t="n">
+        <v>271.01</v>
+      </c>
+      <c r="H529" t="n">
+        <v>269.2523529411765</v>
+      </c>
+      <c r="I529" t="n">
+        <v>289.0511111111111</v>
+      </c>
+      <c r="J529" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:15:08+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>274.81</v>
+      </c>
+      <c r="C530" t="n">
+        <v>258.49</v>
+      </c>
+      <c r="D530" t="n">
+        <v>262.02</v>
+      </c>
+      <c r="E530" t="n">
+        <v>260.2966666666667</v>
+      </c>
+      <c r="F530" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="G530" t="n">
+        <v>260.01</v>
+      </c>
+      <c r="H530" t="n">
+        <v>234.1682352941177</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
+      <c r="J530" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:15:13+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>277.63</v>
+      </c>
+      <c r="C531" t="n">
+        <v>275.37</v>
+      </c>
+      <c r="D531" t="n">
+        <v>276.7</v>
+      </c>
+      <c r="E531" t="n">
+        <v>274.23</v>
+      </c>
+      <c r="F531" t="n">
+        <v>279.0185714285714</v>
+      </c>
+      <c r="G531" t="n">
+        <v>278.41</v>
+      </c>
+      <c r="H531" t="inlineStr"/>
+      <c r="I531" t="n">
+        <v>286.3433333333333</v>
+      </c>
+      <c r="J531" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17779,7 +17919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B550"/>
+  <dimension ref="A1:B554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23287,6 +23427,46 @@
       </c>
       <c r="B550" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>-0.82</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>-0.91</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -23460,28 +23640,28 @@
         <v>0.0321</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1895985923929594</v>
+        <v>-0.2260070057170171</v>
       </c>
       <c r="J2" t="n">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="K2" t="n">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004300075847345819</v>
+        <v>0.006165382290732602</v>
       </c>
       <c r="M2" t="n">
-        <v>16.62392772170224</v>
+        <v>16.66615143450802</v>
       </c>
       <c r="N2" t="n">
-        <v>440.3343227235442</v>
+        <v>440.0726226541667</v>
       </c>
       <c r="O2" t="n">
-        <v>20.98414455543862</v>
+        <v>20.97790796657681</v>
       </c>
       <c r="P2" t="n">
-        <v>300.0505563096769</v>
+        <v>300.4280739144043</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23538,28 +23718,28 @@
         <v>0.0232</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1795651930834072</v>
+        <v>-0.2132940398612224</v>
       </c>
       <c r="J3" t="n">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="K3" t="n">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004875023073235729</v>
+        <v>0.006921408101544846</v>
       </c>
       <c r="M3" t="n">
-        <v>15.18283140678064</v>
+        <v>15.22217423145643</v>
       </c>
       <c r="N3" t="n">
-        <v>356.4336428868295</v>
+        <v>357.0271921123288</v>
       </c>
       <c r="O3" t="n">
-        <v>18.8794502803135</v>
+        <v>18.89516319358816</v>
       </c>
       <c r="P3" t="n">
-        <v>289.5771060403631</v>
+        <v>289.922178521949</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23610,28 +23790,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>-0.3216262056084885</v>
+        <v>-0.3344502927978819</v>
       </c>
       <c r="J4" t="n">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="K4" t="n">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02114852907776799</v>
+        <v>0.0231877974907605</v>
       </c>
       <c r="M4" t="n">
-        <v>12.76665271785113</v>
+        <v>12.71118083621779</v>
       </c>
       <c r="N4" t="n">
-        <v>260.7404558325159</v>
+        <v>259.0939014103283</v>
       </c>
       <c r="O4" t="n">
-        <v>16.14745973311332</v>
+        <v>16.09639404992088</v>
       </c>
       <c r="P4" t="n">
-        <v>286.3263427625552</v>
+        <v>286.4567469568938</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23688,28 +23868,28 @@
         <v>0.0322</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4142406975944322</v>
+        <v>-0.4196915557853889</v>
       </c>
       <c r="J5" t="n">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="K5" t="n">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03895902453296518</v>
+        <v>0.04058453609689727</v>
       </c>
       <c r="M5" t="n">
-        <v>11.70596481306596</v>
+        <v>11.65647876958941</v>
       </c>
       <c r="N5" t="n">
-        <v>230.8654151568373</v>
+        <v>229.17925389046</v>
       </c>
       <c r="O5" t="n">
-        <v>15.19425599221091</v>
+        <v>15.13866750709784</v>
       </c>
       <c r="P5" t="n">
-        <v>281.0026189277152</v>
+        <v>281.058208127579</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23760,28 +23940,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.4818806196263358</v>
+        <v>-0.4705438691519012</v>
       </c>
       <c r="J6" t="n">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="K6" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0558139527294822</v>
+        <v>0.05410475254731506</v>
       </c>
       <c r="M6" t="n">
-        <v>11.05097893391017</v>
+        <v>11.01619582392481</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3816715216323</v>
+        <v>210.1618535051178</v>
       </c>
       <c r="O6" t="n">
-        <v>14.53897078618814</v>
+        <v>14.49696014704868</v>
       </c>
       <c r="P6" t="n">
-        <v>281.7971437442872</v>
+        <v>281.6804587325057</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23838,28 +24018,28 @@
         <v>0.0472</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5252368758702149</v>
+        <v>-0.5231522453279347</v>
       </c>
       <c r="J7" t="n">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="K7" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0622514676654895</v>
+        <v>0.0627046833862055</v>
       </c>
       <c r="M7" t="n">
-        <v>11.33118366452817</v>
+        <v>11.28759103325993</v>
       </c>
       <c r="N7" t="n">
-        <v>218.0420751223947</v>
+        <v>216.5728267355764</v>
       </c>
       <c r="O7" t="n">
-        <v>14.7662478349239</v>
+        <v>14.71641351469767</v>
       </c>
       <c r="P7" t="n">
-        <v>284.3914023149574</v>
+        <v>284.3694530392725</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -23910,28 +24090,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.4742684894492175</v>
+        <v>-0.4949529994732021</v>
       </c>
       <c r="J8" t="n">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="K8" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03927789607239662</v>
+        <v>0.04260153979315595</v>
       </c>
       <c r="M8" t="n">
-        <v>13.20279408599415</v>
+        <v>13.23723705466505</v>
       </c>
       <c r="N8" t="n">
-        <v>286.2053016661703</v>
+        <v>288.4338484218822</v>
       </c>
       <c r="O8" t="n">
-        <v>16.91760330738873</v>
+        <v>16.98334031991005</v>
       </c>
       <c r="P8" t="n">
-        <v>288.1988875465948</v>
+        <v>288.4181284863155</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -23988,28 +24168,28 @@
         <v>0.053</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3570678374322191</v>
+        <v>-0.3615860348472401</v>
       </c>
       <c r="J9" t="n">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="K9" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02555131583101078</v>
+        <v>0.0265355566611275</v>
       </c>
       <c r="M9" t="n">
-        <v>12.32366613150787</v>
+        <v>12.25855730178233</v>
       </c>
       <c r="N9" t="n">
-        <v>251.3542407366179</v>
+        <v>249.6571451985948</v>
       </c>
       <c r="O9" t="n">
-        <v>15.85415531451039</v>
+        <v>15.80054256026023</v>
       </c>
       <c r="P9" t="n">
-        <v>301.490213079147</v>
+        <v>301.5384811718925</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24047,7 +24227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J527"/>
+  <dimension ref="A1:J531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48147,6 +48327,206 @@
         </is>
       </c>
     </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>-46.49418658726546,169.70940090040747</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>-46.49479470823092,169.7092111699767</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>-46.495424009684264,169.70932628298007</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>-46.49603422967248,169.70916695324246</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>-46.49666980667256,169.70937256542157</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>-46.49728264384763,169.7092510919155</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>-46.497900658173904,169.70920421018363</t>
+        </is>
+      </c>
+      <c r="I528" t="inlineStr">
+        <is>
+          <t>-46.498528008693036,169.70929176440717</t>
+        </is>
+      </c>
+      <c r="J528" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:15:11+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>-46.49420558602172,169.7096742584684</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>-46.49481485099773,169.7095009844853</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>-46.49542908814907,169.70939935282735</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>-46.4960430991352,169.7092945677651</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>-46.496657070470334,169.70918931292331</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>-46.49727592642664,169.70915443953473</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>-46.49789113705637,169.70906721712373</t>
+        </is>
+      </c>
+      <c r="I529" t="inlineStr">
+        <is>
+          <t>-46.49852575155816,169.70925928707808</t>
+        </is>
+      </c>
+      <c r="J529" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:15:08+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>-46.49419527635067,169.7095259195874</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>-46.494797409583114,169.7092500364584</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>-46.49541740941156,169.70923131811404</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>-46.496032671874055,169.70914453973236</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>-46.496661458260654,169.70925244535013</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>-46.497266021234175,169.7090119226709</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>-46.49785954378702,169.70861265969597</t>
+        </is>
+      </c>
+      <c r="I530" t="inlineStr"/>
+      <c r="J530" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:15:13+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>-46.49419781551886,169.70956245369862</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>-46.494812608946695,169.7094687252807</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>-46.4954306278872,169.70942150698636</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>-46.496045218180484,169.70932505706276</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>-46.49666633740167,169.70932264803065</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>-46.497282589820436,169.70925031455042</t>
+        </is>
+      </c>
+      <c r="H531" t="inlineStr"/>
+      <c r="I531" t="inlineStr">
+        <is>
+          <t>-46.49852331332195,169.70922420408036</t>
+        </is>
+      </c>
+      <c r="J531" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0542/nzd0542.xlsx
+++ b/data/nzd0542/nzd0542.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J531"/>
+  <dimension ref="A1:J532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17898,11 +17898,49 @@
       <c r="G531" t="n">
         <v>278.41</v>
       </c>
-      <c r="H531" t="inlineStr"/>
+      <c r="H531" t="n">
+        <v>278.9147058823529</v>
+      </c>
       <c r="I531" t="n">
         <v>286.3433333333333</v>
       </c>
       <c r="J531" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>279.14</v>
+      </c>
+      <c r="C532" t="n">
+        <v>263.6</v>
+      </c>
+      <c r="D532" t="n">
+        <v>266.59</v>
+      </c>
+      <c r="E532" t="n">
+        <v>263.7066666666667</v>
+      </c>
+      <c r="F532" t="n">
+        <v>268.2842857142857</v>
+      </c>
+      <c r="G532" t="n">
+        <v>270.4</v>
+      </c>
+      <c r="H532" t="n">
+        <v>279.0235294117647</v>
+      </c>
+      <c r="I532" t="n">
+        <v>284.9711111111111</v>
+      </c>
+      <c r="J532" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17919,7 +17957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B554"/>
+  <dimension ref="A1:B555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23467,6 +23505,16 @@
       </c>
       <c r="B554" t="n">
         <v>0.33</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>-0.22</v>
       </c>
     </row>
   </sheetData>
@@ -24227,7 +24275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J531"/>
+  <dimension ref="A1:J532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48515,13 +48563,69 @@
           <t>-46.497282589820436,169.70925031455042</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr"/>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>-46.497899837695705,169.70919240477113</t>
+        </is>
+      </c>
       <c r="I531" t="inlineStr">
         <is>
           <t>-46.49852331332195,169.70922420408036</t>
         </is>
       </c>
       <c r="J531" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>-46.494199175139606,169.70958201629176</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>-46.49480201085612,169.70931623904278</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>-46.49542152446117,169.70929052540112</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>-46.49603574244365,169.70918871896467</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>-46.496656671695526,169.70918357529496</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>-46.497275377143325,169.70914653632522</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>-46.49789993568703,169.70919381471384</t>
+        </is>
+      </c>
+      <c r="I532" t="inlineStr">
+        <is>
+          <t>-46.498522077691376,169.70920642504927</t>
+        </is>
+      </c>
+      <c r="J532" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0542/nzd0542.xlsx
+++ b/data/nzd0542/nzd0542.xlsx
@@ -23688,28 +23688,28 @@
         <v>0.0321</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2260070057170171</v>
+        <v>-0.2333387230373135</v>
       </c>
       <c r="J2" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K2" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006165382290732602</v>
+        <v>0.006593316239726033</v>
       </c>
       <c r="M2" t="n">
-        <v>16.66615143450802</v>
+        <v>16.66668440860948</v>
       </c>
       <c r="N2" t="n">
-        <v>440.0726226541667</v>
+        <v>439.5743837388568</v>
       </c>
       <c r="O2" t="n">
-        <v>20.97790796657681</v>
+        <v>20.96602927926165</v>
       </c>
       <c r="P2" t="n">
-        <v>300.4280739144043</v>
+        <v>300.5044550468772</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23766,28 +23766,28 @@
         <v>0.0232</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2132940398612224</v>
+        <v>-0.2229839489253019</v>
       </c>
       <c r="J3" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K3" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006921408101544846</v>
+        <v>0.00757460070253102</v>
       </c>
       <c r="M3" t="n">
-        <v>15.22217423145643</v>
+        <v>15.23857854314644</v>
       </c>
       <c r="N3" t="n">
-        <v>357.0271921123288</v>
+        <v>357.2016062623309</v>
       </c>
       <c r="O3" t="n">
-        <v>18.89516319358816</v>
+        <v>18.89977794214342</v>
       </c>
       <c r="P3" t="n">
-        <v>289.922178521949</v>
+        <v>290.0218076560106</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23838,28 +23838,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>-0.3344502927978819</v>
+        <v>-0.3394155430776364</v>
       </c>
       <c r="J4" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K4" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0231877974907605</v>
+        <v>0.02394890070786682</v>
       </c>
       <c r="M4" t="n">
-        <v>12.71118083621779</v>
+        <v>12.70603570158743</v>
       </c>
       <c r="N4" t="n">
-        <v>259.0939014103283</v>
+        <v>258.7803367757434</v>
       </c>
       <c r="O4" t="n">
-        <v>16.09639404992088</v>
+        <v>16.08665088748256</v>
       </c>
       <c r="P4" t="n">
-        <v>286.4567469568938</v>
+        <v>286.5074814339692</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23916,28 +23916,28 @@
         <v>0.0322</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4196915557853889</v>
+        <v>-0.4224761316048278</v>
       </c>
       <c r="J5" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K5" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04058453609689727</v>
+        <v>0.04126597710876168</v>
       </c>
       <c r="M5" t="n">
-        <v>11.65647876958941</v>
+        <v>11.64615152734468</v>
       </c>
       <c r="N5" t="n">
-        <v>229.17925389046</v>
+        <v>228.751073044716</v>
       </c>
       <c r="O5" t="n">
-        <v>15.13866750709784</v>
+        <v>15.12451893597664</v>
       </c>
       <c r="P5" t="n">
-        <v>281.058208127579</v>
+        <v>281.0867713990474</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23988,28 +23988,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.4705438691519012</v>
+        <v>-0.4710348607204209</v>
       </c>
       <c r="J6" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K6" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05410475254731506</v>
+        <v>0.05443819985352882</v>
       </c>
       <c r="M6" t="n">
-        <v>11.01619582392481</v>
+        <v>10.99449429785563</v>
       </c>
       <c r="N6" t="n">
-        <v>210.1618535051178</v>
+        <v>209.7029172731133</v>
       </c>
       <c r="O6" t="n">
-        <v>14.49696014704868</v>
+        <v>14.48112279048532</v>
       </c>
       <c r="P6" t="n">
-        <v>281.6804587325057</v>
+        <v>281.6855365237329</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24066,28 +24066,28 @@
         <v>0.0472</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5231522453279347</v>
+        <v>-0.5233153337503399</v>
       </c>
       <c r="J7" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K7" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0627046833862055</v>
+        <v>0.06300778357206216</v>
       </c>
       <c r="M7" t="n">
-        <v>11.28759103325993</v>
+        <v>11.26253204390813</v>
       </c>
       <c r="N7" t="n">
-        <v>216.5728267355764</v>
+        <v>216.0764113242104</v>
       </c>
       <c r="O7" t="n">
-        <v>14.71641351469767</v>
+        <v>14.6995377928767</v>
       </c>
       <c r="P7" t="n">
-        <v>284.3694530392725</v>
+        <v>284.3711803440894</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24138,28 +24138,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-0.4949529994732021</v>
+        <v>-0.4918195274640655</v>
       </c>
       <c r="J8" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K8" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04260153979315595</v>
+        <v>0.04246106973033248</v>
       </c>
       <c r="M8" t="n">
-        <v>13.23723705466505</v>
+        <v>13.1892285838886</v>
       </c>
       <c r="N8" t="n">
-        <v>288.4338484218822</v>
+        <v>287.1115675701033</v>
       </c>
       <c r="O8" t="n">
-        <v>16.98334031991005</v>
+        <v>16.94436683886723</v>
       </c>
       <c r="P8" t="n">
-        <v>288.4181284863155</v>
+        <v>288.3848311668</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24216,28 +24216,28 @@
         <v>0.053</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3615860348472401</v>
+        <v>-0.3649014202229975</v>
       </c>
       <c r="J9" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K9" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0265355566611275</v>
+        <v>0.0271220715037801</v>
       </c>
       <c r="M9" t="n">
-        <v>12.25855730178233</v>
+        <v>12.24633793694665</v>
       </c>
       <c r="N9" t="n">
-        <v>249.6571451985948</v>
+        <v>249.183051435828</v>
       </c>
       <c r="O9" t="n">
-        <v>15.80054256026023</v>
+        <v>15.78553297914986</v>
       </c>
       <c r="P9" t="n">
-        <v>301.5384811718925</v>
+        <v>301.5740383806721</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">

--- a/data/nzd0542/nzd0542.xlsx
+++ b/data/nzd0542/nzd0542.xlsx
@@ -23679,13 +23679,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0234</v>
+        <v>0.0249</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0321</v>
+        <v>0.0309</v>
       </c>
       <c r="I2" t="n">
         <v>-0.2333387230373135</v>
@@ -23757,13 +23757,13 @@
         <v>0.1428571428583894</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0196</v>
+        <v>0.0248</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0232</v>
+        <v>0.0262</v>
       </c>
       <c r="I3" t="n">
         <v>-0.2229839489253019</v>
@@ -23834,9 +23834,15 @@
       <c r="E4" t="n">
         <v>0.2857142857154518</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0305</v>
+      </c>
       <c r="I4" t="n">
         <v>-0.3394155430776363</v>
       </c>
@@ -23907,13 +23913,13 @@
         <v>0.4285714285725142</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0286</v>
+        <v>0.0338</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0322</v>
+        <v>0.0369</v>
       </c>
       <c r="I5" t="n">
         <v>-0.4224761690102129</v>
@@ -23984,9 +23990,15 @@
       <c r="E6" t="n">
         <v>0.5714285714295766</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0331</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0361</v>
+      </c>
       <c r="I6" t="n">
         <v>-0.4710555876104385</v>
       </c>
@@ -24057,13 +24069,13 @@
         <v>0.7142857142875843</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0377</v>
+        <v>0.0338</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0472</v>
+        <v>0.036</v>
       </c>
       <c r="I7" t="n">
         <v>-0.5233153337503398</v>
@@ -24134,9 +24146,15 @@
       <c r="E8" t="n">
         <v>0.8571428571442646</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0337</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0362</v>
+      </c>
       <c r="I8" t="n">
         <v>-0.4918039391849383</v>
       </c>
@@ -24207,13 +24225,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="G9" t="n">
-        <v>0.037</v>
+        <v>0.0387</v>
       </c>
       <c r="H9" t="n">
-        <v>0.053</v>
+        <v>0.0423</v>
       </c>
       <c r="I9" t="n">
         <v>-0.3649035843795005</v>
